--- a/ETH_in_USD.xlsx
+++ b/ETH_in_USD.xlsx
@@ -11932,10 +11932,10 @@
         <v>43641</v>
       </c>
       <c r="B502">
-        <v>316.58</v>
+        <v>314.02</v>
       </c>
       <c r="C502">
-        <v>316.58</v>
+        <v>315.2</v>
       </c>
       <c r="D502">
         <v>306.13</v>
